--- a/medicine/Enfance/Didier_Sustrac/Didier_Sustrac.xlsx
+++ b/medicine/Enfance/Didier_Sustrac/Didier_Sustrac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didier Sustrac est un auteur-compositeur-interprète et auteur d'ouvrages pour la jeunesse et de romans Français, né le 14 décembre 1959 à Grasse (Alpes-Maritimes).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1959 à Grasse , Didier Sustrac s’empare de la guitare familiale dès sa huitième année. Dix ans plus tard, nourri des récits de sa grand-mère poétesse et peintre, il part explorer le Venezuela. Puis le Brésil, et la découverte de la bossa nova. 
 Son premier album Zanzibar sort en 1993.
@@ -546,7 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums studio
+          <t>Albums studio</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1993 : Zanzibar (Remark)
 Tout seul
 I'm Not The One
@@ -675,7 +695,9 @@
           <t>Vidéographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 2011 : Voyageur (Live) (Jazz’azimut Collection)
@@ -715,9 +737,11 @@
           <t>Collaborations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1999 : Jane Fostin : Blues de Billie
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1999 : Jane Fostin : Blues de Billie
 2002 : Nana Mouskouri : Voir le monde
 1998 : Maurane : J’t’ai pas tout dit
 1995 avec Chico Buarque - Blues indigo : ça sert à quoi
@@ -726,11 +750,7 @@
 2003 : duo avec Claude Nougaro : Cogne sur l'album Matière Première
 2016 : duo avec Pierre Barouh : Samba saravah dans l'album Ostende Bossa
 2016 : duo avec David Linx : Moussaillon sur l'album Ostende Bossa
-2016 : duo avec Camila Costa : Rua Madureira sur l'album Ostende Bossa
-Production
-En 2000, il produit l'album de Marcio Faraco Ciranda et y chante en duo : Nostalgia
-Il écrit également des chansons, entre autres pour Jane Fostin (Blues de Billie).
-</t>
+2016 : duo avec Camila Costa : Rua Madureira sur l'album Ostende Bossa</t>
         </is>
       </c>
     </row>
@@ -755,10 +775,50 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Collaborations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2000, il produit l'album de Marcio Faraco Ciranda et y chante en duo : Nostalgia
+Il écrit également des chansons, entre autres pour Jane Fostin (Blues de Billie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Didier_Sustrac</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Didier_Sustrac</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2000 : Busca Vida, éditions Orphie
 2007 : Chut le roi pourrait t’entendre, conte pour enfants, prix de l’éducation enfantine, Gautier-Languereau
